--- a/Project/scrum/用户故事.xlsx
+++ b/Project/scrum/用户故事.xlsx
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
   <si>
     <t>PROJECT VISION</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>添加关注</t>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望能够在宠物动态推荐中，点击该动态的添加关注可对其进行关注。</t>
   </si>
   <si>
     <t>页面：在动态页，点击某动态的“加号”图标，改变其样式，表示关注成功。</t>
@@ -680,14 +683,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;\-0;;@\ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,13 +714,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -726,19 +722,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -749,18 +732,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -799,6 +770,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -806,6 +791,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -813,8 +814,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,25 +875,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,6 +891,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -866,94 +914,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -966,6 +926,17 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -1006,187 +977,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,15 +1434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1483,6 +1445,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,7 +1503,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,10 +1524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1565,138 +1536,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,143 +1728,97 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2225,57 +2150,57 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="33" spans="1:9">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="67"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2310,14 +2235,14 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2331,17 +2256,17 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2360,7 +2285,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2403,36 +2328,36 @@
       </c>
     </row>
     <row r="3" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A3" s="33">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="25">
         <v>4</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="25">
         <v>98</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A4" s="33">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -2441,7 +2366,7 @@
       <c r="D4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="23">
@@ -2450,15 +2375,15 @@
       <c r="G4" s="23">
         <v>98</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A5" s="33">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2467,7 +2392,7 @@
       <c r="D5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="25">
@@ -2481,10 +2406,10 @@
       </c>
     </row>
     <row r="6" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A6" s="33">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -2493,7 +2418,7 @@
       <c r="D6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="25">
@@ -2507,88 +2432,88 @@
       </c>
     </row>
     <row r="7" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A7" s="33">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="23">
         <v>5</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="23">
         <v>96</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A8" s="33">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="25">
         <v>3</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="25">
         <v>96</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A9" s="33">
+      <c r="A9" s="25">
         <v>7</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="25">
         <v>2</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="25">
         <v>96</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A10" s="33">
+      <c r="A10" s="25">
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -2597,7 +2522,7 @@
       <c r="D10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="24" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="23">
@@ -2606,194 +2531,194 @@
       <c r="G10" s="23">
         <v>95</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A11" s="33">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="25">
         <v>1</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="25">
         <v>1</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="25">
         <v>90</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A12" s="33">
+      <c r="A12" s="25">
         <v>10</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="25">
         <v>1</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="25">
         <v>6</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="25">
         <v>88</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A13" s="33">
+      <c r="A13" s="25">
         <v>11</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="25">
         <v>1</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="25">
         <v>4</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="25">
         <v>85</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39">
         <f>SUM(F3:F13)</f>
         <v>34</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A15" s="33">
+      <c r="A15" s="25">
         <v>1</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="25">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="25">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="25">
         <v>83</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A16" s="33">
+      <c r="A16" s="25">
         <v>2</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="25">
         <v>2</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="25">
         <v>2</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="25">
         <v>83</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A17" s="33">
+      <c r="A17" s="25">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="25">
         <v>2</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="E17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="25">
         <v>4</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="25">
         <v>80</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>63</v>
+      <c r="H17" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A18" s="33">
+      <c r="A18" s="25">
         <v>4</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="25">
         <v>2</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="37" t="s">
         <v>65</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="F18" s="23">
         <v>2</v>
@@ -2801,25 +2726,25 @@
       <c r="G18" s="23">
         <v>80</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>66</v>
+      <c r="H18" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A19" s="33">
+      <c r="A19" s="25">
         <v>5</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="25">
         <v>2</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="25">
         <v>2</v>
@@ -2828,24 +2753,24 @@
         <v>80</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A20" s="33">
+      <c r="A20" s="25">
         <v>6</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="25">
         <v>2</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="25">
         <v>3</v>
@@ -2854,24 +2779,24 @@
         <v>80</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A21" s="33">
+      <c r="A21" s="25">
         <v>7</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="25">
         <v>2</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="25">
         <v>6</v>
@@ -2880,24 +2805,24 @@
         <v>75</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A22" s="33">
+      <c r="A22" s="25">
         <v>8</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="25">
         <v>2</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="25">
         <v>5</v>
@@ -2906,21 +2831,21 @@
         <v>75</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:8">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56">
+      <c r="A23" s="35"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39">
         <f>SUM(F15:F22)</f>
         <v>25</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="57"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8">
       <c r="A24" s="25">
@@ -2933,10 +2858,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="25">
         <v>1</v>
@@ -2945,7 +2870,7 @@
         <v>72</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:8">
@@ -2959,10 +2884,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="25">
         <v>1</v>
@@ -2971,7 +2896,7 @@
         <v>65</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8">
@@ -2981,23 +2906,23 @@
       <c r="B26" s="25">
         <v>3</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="35" t="s">
+      <c r="D26" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="33">
+      <c r="E26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="25">
         <v>5</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="25">
         <v>62</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>87</v>
+      <c r="H26" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:8">
@@ -3007,37 +2932,37 @@
       <c r="B27" s="25">
         <v>3</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="35" t="s">
+      <c r="D27" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="33">
+      <c r="E27" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="25">
         <v>1</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="25">
         <v>60</v>
       </c>
-      <c r="H27" s="35" t="s">
-        <v>90</v>
+      <c r="H27" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:8">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56">
+      <c r="A28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39">
         <f>SUM(F20:F27)</f>
         <v>47</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="57"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" ht="15" customHeight="1"/>
   </sheetData>
@@ -3069,7 +2994,7 @@
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3">
         <f ca="1">TODAY()</f>
@@ -3078,7 +3003,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6">
@@ -3088,7 +3013,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="7" t="str">
         <f ca="1">MID(CELL("filename",C2),FIND("]",CELL("filename"))+1,256)</f>
@@ -3103,20 +3028,20 @@
     <row r="3" spans="1:8">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7" t="e">
         <v>#N/A</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12">
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -3124,28 +3049,28 @@
     </row>
     <row r="4" ht="25.3" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:4">
@@ -3153,13 +3078,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:4">
@@ -3167,13 +3092,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:4">
@@ -3181,223 +3106,223 @@
         <v>59</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:4">
       <c r="A8" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:4">
       <c r="A9" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:4">
       <c r="A10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:4">
       <c r="A12" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:4">
       <c r="A13" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:4">
       <c r="A14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:4">
       <c r="A15" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:4">
       <c r="A16" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:4">
       <c r="A17" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:4">
       <c r="A18" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:4">
       <c r="A19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:4">
       <c r="A20" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:4">
       <c r="A21" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:4">
       <c r="A22" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
